--- a/analysen/gewinn_verlust.xlsx
+++ b/analysen/gewinn_verlust.xlsx
@@ -65,10 +65,16 @@
     <t xml:space="preserve">Lautertal (Vogelsberg)</t>
   </si>
   <si>
-    <t xml:space="preserve">632007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hauneck</t>
+    <t xml:space="preserve">535017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schwalmtal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">631007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eiterfeld</t>
   </si>
   <si>
     <t xml:space="preserve">532011</t>
@@ -77,12 +83,6 @@
     <t xml:space="preserve">Haiger</t>
   </si>
   <si>
-    <t xml:space="preserve">631007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eiterfeld</t>
-  </si>
-  <si>
     <t xml:space="preserve">631022</t>
   </si>
   <si>
@@ -110,10 +110,10 @@
     <t xml:space="preserve">Schwarzenborn</t>
   </si>
   <si>
-    <t xml:space="preserve">535002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antrifttal</t>
+    <t xml:space="preserve">632005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cornberg</t>
   </si>
   <si>
     <t xml:space="preserve">440011</t>
@@ -155,61 +155,61 @@
     <t xml:space="preserve">Sulzbach (Taunus)</t>
   </si>
   <si>
+    <t xml:space="preserve">438005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heusenstamm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">535005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gemünden (Felda)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">633003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baunatal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">533012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merenberg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AfD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alternative für Deutschland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#0c6ffa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">532009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eschenburg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">635001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allendorf (Eder)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">412000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frankfurt am Main</t>
+  </si>
+  <si>
     <t xml:space="preserve">413000</t>
   </si>
   <si>
     <t xml:space="preserve">Offenbach (Stadt)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">632016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Philippsthal (Werra)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">633003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baunatal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">632005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cornberg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">533012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merenberg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AfD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alternative für Deutschland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#0c6ffa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">532005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dietzhölztal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">532009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eschenburg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">412000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frankfurt am Main</t>
   </si>
   <si>
     <t xml:space="preserve">436001</t>
@@ -713,10 +713,10 @@
         <v>12</v>
       </c>
       <c r="F2" t="n">
-        <v>40.8105560791706</v>
+        <v>40.7146215326751</v>
       </c>
       <c r="G2" t="n">
-        <v>16.7348121657351</v>
+        <v>16.6388776192396</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -745,10 +745,10 @@
         <v>12</v>
       </c>
       <c r="F3" t="n">
-        <v>38.7248322147651</v>
+        <v>39.1717583163612</v>
       </c>
       <c r="G3" t="n">
-        <v>14.527976438962</v>
+        <v>14.974902540558</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -768,19 +768,19 @@
         <v>18</v>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>73.5</v>
+        <v>74.1</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
       </c>
       <c r="F4" t="n">
-        <v>35.0276243093923</v>
+        <v>41.9975186104218</v>
       </c>
       <c r="G4" t="n">
-        <v>13.7896913167744</v>
+        <v>13.7940414694045</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -800,19 +800,19 @@
         <v>20</v>
       </c>
       <c r="C5" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>61.2</v>
+        <v>79.1</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
       </c>
       <c r="F5" t="n">
-        <v>40.3457153365208</v>
+        <v>45.6186807896004</v>
       </c>
       <c r="G5" t="n">
-        <v>2.43138591275739</v>
+        <v>2.30830203898554</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -832,19 +832,19 @@
         <v>22</v>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D6" t="n">
-        <v>79.1</v>
+        <v>61.2</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
       </c>
       <c r="F6" t="n">
-        <v>45.5967276227141</v>
+        <v>40.1341463414634</v>
       </c>
       <c r="G6" t="n">
-        <v>2.2863488720993</v>
+        <v>2.21981691770003</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -873,10 +873,10 @@
         <v>12</v>
       </c>
       <c r="F7" t="n">
-        <v>53.6687631027254</v>
+        <v>53.5564853556485</v>
       </c>
       <c r="G7" t="n">
-        <v>1.56298445434143</v>
+        <v>1.45070670726459</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -905,10 +905,10 @@
         <v>27</v>
       </c>
       <c r="F8" t="n">
-        <v>25.7698048537785</v>
+        <v>25.7306874948252</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.74583756088153</v>
+        <v>-0.784954919834906</v>
       </c>
       <c r="H8" t="n">
         <v>2</v>
@@ -937,10 +937,10 @@
         <v>27</v>
       </c>
       <c r="F9" t="n">
-        <v>3.52112676056338</v>
+        <v>3.52733686067019</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.94026683642344</v>
+        <v>-1.93405673631662</v>
       </c>
       <c r="H9" t="n">
         <v>2</v>
@@ -960,19 +960,19 @@
         <v>33</v>
       </c>
       <c r="C10" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D10" t="n">
-        <v>78.7</v>
+        <v>68.8</v>
       </c>
       <c r="E10" t="s">
         <v>27</v>
       </c>
       <c r="F10" t="n">
-        <v>7.50647109577222</v>
+        <v>5.37010159651669</v>
       </c>
       <c r="G10" t="n">
-        <v>-2.17895936780394</v>
+        <v>-2.19292361356734</v>
       </c>
       <c r="H10" t="n">
         <v>2</v>
@@ -1001,10 +1001,10 @@
         <v>27</v>
       </c>
       <c r="F11" t="n">
-        <v>7.71881461061337</v>
+        <v>7.77777777777778</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.7605861384503</v>
+        <v>-8.70162297128589</v>
       </c>
       <c r="H11" t="n">
         <v>2</v>
@@ -1033,10 +1033,10 @@
         <v>27</v>
       </c>
       <c r="F12" t="n">
-        <v>8.70659285354806</v>
+        <v>8.71097683786506</v>
       </c>
       <c r="G12" t="n">
-        <v>-9.2643477531305</v>
+        <v>-9.2599637688135</v>
       </c>
       <c r="H12" t="n">
         <v>2</v>
@@ -1065,10 +1065,10 @@
         <v>27</v>
       </c>
       <c r="F13" t="n">
-        <v>8.37903717245582</v>
+        <v>8.36374695863747</v>
       </c>
       <c r="G13" t="n">
-        <v>-9.83122565607985</v>
+        <v>-9.8465158698982</v>
       </c>
       <c r="H13" t="n">
         <v>2</v>
@@ -1097,10 +1097,10 @@
         <v>42</v>
       </c>
       <c r="F14" t="n">
-        <v>18.0741910023678</v>
+        <v>18.1170886075949</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.512936156187934</v>
+        <v>-0.470038550960794</v>
       </c>
       <c r="H14" t="n">
         <v>3</v>
@@ -1129,10 +1129,10 @@
         <v>42</v>
       </c>
       <c r="F15" t="n">
-        <v>15.4082840236686</v>
+        <v>15.3900709219858</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.990924593609886</v>
+        <v>-1.00913769529271</v>
       </c>
       <c r="H15" t="n">
         <v>3</v>
@@ -1152,19 +1152,19 @@
         <v>48</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D16" t="n">
-        <v>50.9</v>
+        <v>69.4</v>
       </c>
       <c r="E16" t="s">
         <v>42</v>
       </c>
       <c r="F16" t="n">
-        <v>16.9787017344157</v>
+        <v>14.2125042705842</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.1180058154679</v>
+        <v>-1.09568929847892</v>
       </c>
       <c r="H16" t="n">
         <v>3</v>
@@ -1184,19 +1184,19 @@
         <v>50</v>
       </c>
       <c r="C17" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D17" t="n">
-        <v>68.3</v>
+        <v>71.7</v>
       </c>
       <c r="E17" t="s">
         <v>42</v>
       </c>
       <c r="F17" t="n">
-        <v>20.9575429087624</v>
+        <v>12.3718386876282</v>
       </c>
       <c r="G17" t="n">
-        <v>-12.4866376138029</v>
+        <v>-12.5435303035702</v>
       </c>
       <c r="H17" t="n">
         <v>3</v>
@@ -1210,25 +1210,25 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D18" t="n">
-        <v>64.7</v>
+        <v>68.8</v>
       </c>
       <c r="E18" t="s">
         <v>42</v>
       </c>
       <c r="F18" t="n">
-        <v>25.037080984871</v>
+        <v>19.0130624092888</v>
       </c>
       <c r="G18" t="n">
-        <v>-14.1083309177969</v>
+        <v>-14.1802149016355</v>
       </c>
       <c r="H18" t="n">
         <v>3</v>
@@ -1242,25 +1242,25 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C19" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>68.8</v>
+        <v>64.7</v>
       </c>
       <c r="E19" t="s">
         <v>42</v>
       </c>
       <c r="F19" t="n">
-        <v>18.9855072463768</v>
+        <v>24.9574924225623</v>
       </c>
       <c r="G19" t="n">
-        <v>-14.2077700645476</v>
+        <v>-14.1879194801056</v>
       </c>
       <c r="H19" t="n">
         <v>3</v>
@@ -1274,10 +1274,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C20" t="n">
         <v>22</v>
@@ -1286,118 +1286,118 @@
         <v>66.3</v>
       </c>
       <c r="E20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F20" t="n">
-        <v>29.916067146283</v>
+        <v>29.96996996997</v>
       </c>
       <c r="G20" t="n">
-        <v>13.9006923865136</v>
+        <v>13.9545952102006</v>
       </c>
       <c r="H20" t="n">
         <v>4</v>
       </c>
       <c r="I20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C21" t="n">
         <v>16</v>
       </c>
       <c r="D21" t="n">
-        <v>63.5</v>
+        <v>65.4</v>
       </c>
       <c r="E21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F21" t="n">
-        <v>29.0297642056436</v>
+        <v>28.4750613246116</v>
       </c>
       <c r="G21" t="n">
-        <v>13.1721590276501</v>
+        <v>13.0681493959606</v>
       </c>
       <c r="H21" t="n">
         <v>4</v>
       </c>
       <c r="I21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C22" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D22" t="n">
-        <v>65.4</v>
+        <v>63.9</v>
       </c>
       <c r="E22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F22" t="n">
-        <v>28.539233763573</v>
+        <v>28.0522430437252</v>
       </c>
       <c r="G22" t="n">
-        <v>13.132321834922</v>
+        <v>12.9321104836589</v>
       </c>
       <c r="H22" t="n">
         <v>4</v>
       </c>
       <c r="I22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>50.9</v>
+        <v>60.9</v>
       </c>
       <c r="E23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F23" t="n">
-        <v>14.8069376628823</v>
+        <v>10.3326253419128</v>
       </c>
       <c r="G23" t="n">
-        <v>1.37823921365508</v>
+        <v>1.33677571514648</v>
       </c>
       <c r="H23" t="n">
         <v>4</v>
       </c>
       <c r="I23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24">
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>60.9</v>
+        <v>50.9</v>
       </c>
       <c r="E24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F24" t="n">
-        <v>10.357872407291</v>
+        <v>14.7644792257833</v>
       </c>
       <c r="G24" t="n">
-        <v>1.36202278052467</v>
+        <v>1.3357807765561</v>
       </c>
       <c r="H24" t="n">
         <v>4</v>
       </c>
       <c r="I24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J24" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25">
@@ -1446,22 +1446,22 @@
         <v>70.6</v>
       </c>
       <c r="E25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F25" t="n">
-        <v>11.1069206109749</v>
+        <v>11.0985490861127</v>
       </c>
       <c r="G25" t="n">
-        <v>0.99084918240349</v>
+        <v>0.982477657541255</v>
       </c>
       <c r="H25" t="n">
         <v>4</v>
       </c>
       <c r="I25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26">
@@ -1481,10 +1481,10 @@
         <v>70</v>
       </c>
       <c r="F26" t="n">
-        <v>8.21181887950883</v>
+        <v>8.16793893129771</v>
       </c>
       <c r="G26" t="n">
-        <v>0.621546219228795</v>
+        <v>0.577666271017678</v>
       </c>
       <c r="H26" t="n">
         <v>5</v>
@@ -1513,10 +1513,10 @@
         <v>70</v>
       </c>
       <c r="F27" t="n">
-        <v>3.72413793103448</v>
+        <v>3.72157133011716</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.382490311040446</v>
+        <v>-0.385056911957768</v>
       </c>
       <c r="H27" t="n">
         <v>5</v>
@@ -1545,10 +1545,10 @@
         <v>70</v>
       </c>
       <c r="F28" t="n">
-        <v>5.47633495145631</v>
+        <v>5.46803998788246</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.392802931160932</v>
+        <v>-0.401097894734782</v>
       </c>
       <c r="H28" t="n">
         <v>5</v>
@@ -1577,10 +1577,10 @@
         <v>70</v>
       </c>
       <c r="F29" t="n">
-        <v>6.13496932515337</v>
+        <v>6.08365019011407</v>
       </c>
       <c r="G29" t="n">
-        <v>-6.91829399067558</v>
+        <v>-6.96961312571489</v>
       </c>
       <c r="H29" t="n">
         <v>5</v>
@@ -1609,10 +1609,10 @@
         <v>70</v>
       </c>
       <c r="F30" t="n">
-        <v>5.1314673452078</v>
+        <v>5.06700167504188</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.06109098987733</v>
+        <v>-7.12555666004326</v>
       </c>
       <c r="H30" t="n">
         <v>5</v>
@@ -1641,10 +1641,10 @@
         <v>70</v>
       </c>
       <c r="F31" t="n">
-        <v>3.01431801055011</v>
+        <v>3.00525920360631</v>
       </c>
       <c r="G31" t="n">
-        <v>-8.08798175154346</v>
+        <v>-8.09704055848727</v>
       </c>
       <c r="H31" t="n">
         <v>5</v>
@@ -1673,10 +1673,10 @@
         <v>83</v>
       </c>
       <c r="F32" t="n">
-        <v>2.11267605633803</v>
+        <v>2.11640211640212</v>
       </c>
       <c r="G32" t="n">
-        <v>0.606084719238216</v>
+        <v>0.609810779302305</v>
       </c>
       <c r="H32" t="n">
         <v>6</v>
@@ -1705,10 +1705,10 @@
         <v>83</v>
       </c>
       <c r="F33" t="n">
-        <v>6.48688952404623</v>
+        <v>6.51197604790419</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.780808200083031</v>
+        <v>-0.755721676225069</v>
       </c>
       <c r="H33" t="n">
         <v>6</v>
@@ -1737,10 +1737,10 @@
         <v>83</v>
       </c>
       <c r="F34" t="n">
-        <v>1.53627983928149</v>
+        <v>1.53519130845536</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.02403527642505</v>
+        <v>-1.02512380725119</v>
       </c>
       <c r="H34" t="n">
         <v>6</v>
@@ -1769,10 +1769,10 @@
         <v>83</v>
       </c>
       <c r="F35" t="n">
-        <v>3.01175318315377</v>
+        <v>2.99707602339181</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.83735647007959</v>
+        <v>-4.85203362984155</v>
       </c>
       <c r="H35" t="n">
         <v>6</v>
@@ -1801,10 +1801,10 @@
         <v>83</v>
       </c>
       <c r="F36" t="n">
-        <v>1.56067108856808</v>
+        <v>1.56678417547983</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.94820465107689</v>
+        <v>-4.94209156416514</v>
       </c>
       <c r="H36" t="n">
         <v>6</v>
@@ -1833,10 +1833,10 @@
         <v>83</v>
       </c>
       <c r="F37" t="n">
-        <v>2.60928043039677</v>
+        <v>2.60262946069225</v>
       </c>
       <c r="G37" t="n">
-        <v>-5.32005945537823</v>
+        <v>-5.32671042508276</v>
       </c>
       <c r="H37" t="n">
         <v>6</v>
@@ -1865,10 +1865,10 @@
         <v>97</v>
       </c>
       <c r="F38" t="n">
-        <v>14.2225497420781</v>
+        <v>14.1599413059428</v>
       </c>
       <c r="G38" t="n">
-        <v>6.28383107912547</v>
+        <v>6.22122264299013</v>
       </c>
       <c r="H38" t="n">
         <v>7</v>
@@ -1882,10 +1882,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B39" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C39" t="n">
         <v>11</v>
@@ -1897,10 +1897,10 @@
         <v>97</v>
       </c>
       <c r="F39" t="n">
-        <v>14.6294513955727</v>
+        <v>14.6364949446317</v>
       </c>
       <c r="G39" t="n">
-        <v>6.16904805076204</v>
+        <v>6.17609159982106</v>
       </c>
       <c r="H39" t="n">
         <v>7</v>
@@ -1929,10 +1929,10 @@
         <v>97</v>
       </c>
       <c r="F40" t="n">
-        <v>14.2342342342342</v>
+        <v>14.3375680580762</v>
       </c>
       <c r="G40" t="n">
-        <v>5.91476668015769</v>
+        <v>6.01810050399969</v>
       </c>
       <c r="H40" t="n">
         <v>7</v>
@@ -2025,10 +2025,10 @@
         <v>97</v>
       </c>
       <c r="F43" t="n">
-        <v>4.37665782493369</v>
+        <v>4.34668071654373</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.18119232068453</v>
+        <v>-5.21116942907448</v>
       </c>
       <c r="H43" t="n">
         <v>7</v>
